--- a/CATI/saved_states/NTC_future_30_day_forecast.xlsx
+++ b/CATI/saved_states/NTC_future_30_day_forecast.xlsx
@@ -456,7 +456,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5231927806974797</v>
+        <v>0.3413142033632344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5209804952401893</v>
+        <v>0.3190980429478851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5065710867903077</v>
+        <v>0.3302904728403517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.459651378131932</v>
+        <v>0.3539499120406343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5198017535372446</v>
+        <v>0.3678546466009929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5116032562466284</v>
+        <v>0.3793855730025166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5287654305729264</v>
+        <v>0.3635105148825148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5195674080494872</v>
+        <v>0.3910460700388858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.512215888081418</v>
+        <v>0.3691685531396178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5360471902329513</v>
+        <v>0.3572080456248493</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5025403583806618</v>
+        <v>0.319388135122457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4767854127866619</v>
+        <v>0.2778647663256245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5183978312347333</v>
+        <v>0.2828287453755624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4269467904390964</v>
+        <v>0.2901432403350007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4101813867302059</v>
+        <v>0.2736733886462862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -659,12 +659,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3919846809129687</v>
+        <v>0.2771206740010897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3636775275491568</v>
+        <v>0.2949025682274686</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -685,12 +685,12 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.351060180199442</v>
+        <v>0.3267378078632872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -698,12 +698,12 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3882488093314399</v>
+        <v>0.3529978613329278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.4568353223753209</v>
+        <v>0.3574175390662176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -724,12 +724,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4603106870290017</v>
+        <v>0.4091398488479487</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -737,12 +737,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4781550769901902</v>
+        <v>0.4172458997115651</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -750,12 +750,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.526668097322183</v>
+        <v>0.4188715865954915</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5238777562366066</v>
+        <v>0.4092736853072489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5308701187963685</v>
+        <v>0.4192898713098626</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -789,12 +789,12 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5323325299748323</v>
+        <v>0.4074392460332971</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -802,12 +802,12 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5442366414593995</v>
+        <v>0.4118779145227532</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -815,12 +815,12 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5428727786114524</v>
+        <v>0.4154290698515039</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -828,12 +828,12 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5368467490246605</v>
+        <v>0.4171573363290887</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5362065544326973</v>
+        <v>0.4171605251775842</v>
       </c>
     </row>
   </sheetData>
